--- a/assets/fienza_basins.xlsx
+++ b/assets/fienza_basins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\html\4.3\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\html\4.6\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31561BA3-F17D-4811-93F9-B69CD96DC035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A121F94-3180-4164-8642-E0A3EAED3CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="571" xr2:uid="{7F04466F-300F-4997-9884-E16F2A03DC70}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basins!$A$1:$FM$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="754">
   <si>
     <t>Item Code</t>
   </si>
@@ -13895,7 +13896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -14169,37 +14170,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -14217,7 +14187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -14276,9 +14246,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -14327,16 +14294,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -14675,12 +14635,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5BD5EF-31B6-424F-9BC8-A6CE1EB5DE16}">
-  <dimension ref="A1:ER37"/>
+  <dimension ref="A1:ER35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomLeft" activeCell="BW35" sqref="BW35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14730,7 +14690,8 @@
     <col min="80" max="81" width="11" bestFit="1" customWidth="1"/>
     <col min="82" max="83" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="84" max="85" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.140625" customWidth="1"/>
+    <col min="87" max="87" width="10" bestFit="1" customWidth="1"/>
     <col min="88" max="89" width="11" bestFit="1" customWidth="1"/>
     <col min="90" max="91" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="92" max="93" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -14758,8 +14719,9 @@
     <col min="140" max="141" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="142" max="143" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="144" max="145" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="4" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="16.28515625" customWidth="1"/>
     <col min="147" max="147" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:148" ht="15.75" thickBot="1">
@@ -14790,415 +14752,415 @@
       <c r="I1" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="30" t="s">
         <v>602</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="30" t="s">
         <v>604</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="31" t="s">
         <v>607</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="30" t="s">
         <v>608</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="32" t="s">
         <v>610</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="31" t="s">
         <v>611</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="32" t="s">
         <v>613</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="31" t="s">
         <v>615</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="39" t="s">
         <v>628</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>746</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AA1" s="35" t="s">
         <v>747</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="35" t="s">
         <v>630</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AE1" s="40" t="s">
         <v>633</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AF1" s="34" t="s">
         <v>748</v>
       </c>
-      <c r="AG1" s="43" t="s">
+      <c r="AG1" s="40" t="s">
         <v>749</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="34" t="s">
         <v>750</v>
       </c>
-      <c r="AI1" s="43" t="s">
+      <c r="AI1" s="40" t="s">
         <v>751</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>752</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AK1" s="40" t="s">
         <v>753</v>
       </c>
-      <c r="AL1" s="49" t="s">
+      <c r="AL1" s="41" t="s">
         <v>637</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AM1" s="25" t="s">
         <v>638</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AN1" s="25" t="s">
         <v>639</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AO1" s="25" t="s">
         <v>640</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AP1" s="25" t="s">
         <v>641</v>
       </c>
-      <c r="AQ1" s="27" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="AR1" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="AS1" s="28" t="s">
+      <c r="AS1" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="AT1" s="28" t="s">
+      <c r="AT1" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="AU1" s="28" t="s">
+      <c r="AU1" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="AV1" s="28" t="s">
+      <c r="AV1" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="AW1" s="28" t="s">
+      <c r="AW1" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="AX1" s="29" t="s">
+      <c r="AX1" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="AY1" s="27" t="s">
+      <c r="AY1" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="AZ1" s="28" t="s">
+      <c r="AZ1" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="BA1" s="28" t="s">
+      <c r="BA1" s="25" t="s">
         <v>642</v>
       </c>
-      <c r="BB1" s="28" t="s">
+      <c r="BB1" s="25" t="s">
         <v>643</v>
       </c>
-      <c r="BC1" s="28" t="s">
+      <c r="BC1" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="BD1" s="28" t="s">
+      <c r="BD1" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="BE1" s="28" t="s">
+      <c r="BE1" s="25" t="s">
         <v>644</v>
       </c>
-      <c r="BF1" s="29" t="s">
+      <c r="BF1" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BG1" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="BH1" s="28" t="s">
+      <c r="BH1" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="BI1" s="28" t="s">
+      <c r="BI1" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="BJ1" s="28" t="s">
+      <c r="BJ1" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="BK1" s="28" t="s">
+      <c r="BK1" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="BL1" s="28" t="s">
+      <c r="BL1" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="BM1" s="28" t="s">
+      <c r="BM1" s="25" t="s">
         <v>647</v>
       </c>
-      <c r="BN1" s="29" t="s">
+      <c r="BN1" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="BO1" s="27" t="s">
+      <c r="BO1" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="BP1" s="28" t="s">
+      <c r="BP1" s="25" t="s">
         <v>667</v>
       </c>
-      <c r="BQ1" s="28" t="s">
+      <c r="BQ1" s="25" t="s">
         <v>668</v>
       </c>
-      <c r="BR1" s="28" t="s">
+      <c r="BR1" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="BS1" s="28" t="s">
+      <c r="BS1" s="25" t="s">
         <v>670</v>
       </c>
-      <c r="BT1" s="28" t="s">
+      <c r="BT1" s="25" t="s">
         <v>671</v>
       </c>
-      <c r="BU1" s="28" t="s">
+      <c r="BU1" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="BV1" s="29" t="s">
+      <c r="BV1" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="BW1" s="30" t="s">
+      <c r="BW1" s="27" t="s">
         <v>674</v>
       </c>
-      <c r="BX1" s="31" t="s">
+      <c r="BX1" s="28" t="s">
         <v>675</v>
       </c>
-      <c r="BY1" s="31" t="s">
+      <c r="BY1" s="28" t="s">
         <v>676</v>
       </c>
-      <c r="BZ1" s="31" t="s">
+      <c r="BZ1" s="28" t="s">
         <v>677</v>
       </c>
-      <c r="CA1" s="30" t="s">
+      <c r="CA1" s="27" t="s">
         <v>678</v>
       </c>
-      <c r="CB1" s="31" t="s">
+      <c r="CB1" s="28" t="s">
         <v>679</v>
       </c>
-      <c r="CC1" s="31" t="s">
+      <c r="CC1" s="28" t="s">
         <v>680</v>
       </c>
-      <c r="CD1" s="31" t="s">
+      <c r="CD1" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="CE1" s="31" t="s">
+      <c r="CE1" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="CF1" s="31" t="s">
+      <c r="CF1" s="28" t="s">
         <v>683</v>
       </c>
-      <c r="CG1" s="31" t="s">
+      <c r="CG1" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="CH1" s="32" t="s">
+      <c r="CH1" s="29" t="s">
         <v>685</v>
       </c>
-      <c r="CI1" s="30" t="s">
+      <c r="CI1" s="27" t="s">
         <v>686</v>
       </c>
-      <c r="CJ1" s="31" t="s">
+      <c r="CJ1" s="28" t="s">
         <v>687</v>
       </c>
-      <c r="CK1" s="31" t="s">
+      <c r="CK1" s="28" t="s">
         <v>688</v>
       </c>
-      <c r="CL1" s="31" t="s">
+      <c r="CL1" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="CM1" s="31" t="s">
+      <c r="CM1" s="28" t="s">
         <v>690</v>
       </c>
-      <c r="CN1" s="31" t="s">
+      <c r="CN1" s="28" t="s">
         <v>691</v>
       </c>
-      <c r="CO1" s="31" t="s">
+      <c r="CO1" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="CP1" s="32" t="s">
+      <c r="CP1" s="29" t="s">
         <v>693</v>
       </c>
-      <c r="CQ1" s="30" t="s">
+      <c r="CQ1" s="27" t="s">
         <v>694</v>
       </c>
-      <c r="CR1" s="31" t="s">
+      <c r="CR1" s="28" t="s">
         <v>695</v>
       </c>
-      <c r="CS1" s="31" t="s">
+      <c r="CS1" s="28" t="s">
         <v>696</v>
       </c>
-      <c r="CT1" s="31" t="s">
+      <c r="CT1" s="28" t="s">
         <v>697</v>
       </c>
-      <c r="CU1" s="31" t="s">
+      <c r="CU1" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="CV1" s="31" t="s">
+      <c r="CV1" s="28" t="s">
         <v>699</v>
       </c>
-      <c r="CW1" s="31" t="s">
+      <c r="CW1" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="CX1" s="32" t="s">
+      <c r="CX1" s="29" t="s">
         <v>701</v>
       </c>
-      <c r="CY1" s="30" t="s">
+      <c r="CY1" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="CZ1" s="31" t="s">
+      <c r="CZ1" s="28" t="s">
         <v>703</v>
       </c>
-      <c r="DA1" s="31" t="s">
+      <c r="DA1" s="28" t="s">
         <v>704</v>
       </c>
-      <c r="DB1" s="31" t="s">
+      <c r="DB1" s="28" t="s">
         <v>705</v>
       </c>
-      <c r="DC1" s="31" t="s">
+      <c r="DC1" s="28" t="s">
         <v>706</v>
       </c>
-      <c r="DD1" s="31" t="s">
+      <c r="DD1" s="28" t="s">
         <v>707</v>
       </c>
-      <c r="DE1" s="31" t="s">
+      <c r="DE1" s="28" t="s">
         <v>708</v>
       </c>
-      <c r="DF1" s="32" t="s">
+      <c r="DF1" s="29" t="s">
         <v>709</v>
       </c>
-      <c r="DG1" s="39" t="s">
+      <c r="DG1" s="36" t="s">
         <v>710</v>
       </c>
-      <c r="DH1" s="40" t="s">
+      <c r="DH1" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="DI1" s="40" t="s">
+      <c r="DI1" s="37" t="s">
         <v>712</v>
       </c>
-      <c r="DJ1" s="40" t="s">
+      <c r="DJ1" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="DK1" s="39" t="s">
+      <c r="DK1" s="36" t="s">
         <v>714</v>
       </c>
-      <c r="DL1" s="40" t="s">
+      <c r="DL1" s="37" t="s">
         <v>715</v>
       </c>
-      <c r="DM1" s="40" t="s">
+      <c r="DM1" s="37" t="s">
         <v>716</v>
       </c>
-      <c r="DN1" s="40" t="s">
+      <c r="DN1" s="37" t="s">
         <v>717</v>
       </c>
-      <c r="DO1" s="40" t="s">
+      <c r="DO1" s="37" t="s">
         <v>718</v>
       </c>
-      <c r="DP1" s="40" t="s">
+      <c r="DP1" s="37" t="s">
         <v>719</v>
       </c>
-      <c r="DQ1" s="40" t="s">
+      <c r="DQ1" s="37" t="s">
         <v>720</v>
       </c>
-      <c r="DR1" s="41" t="s">
+      <c r="DR1" s="38" t="s">
         <v>721</v>
       </c>
-      <c r="DS1" s="39" t="s">
+      <c r="DS1" s="36" t="s">
         <v>722</v>
       </c>
-      <c r="DT1" s="40" t="s">
+      <c r="DT1" s="37" t="s">
         <v>723</v>
       </c>
-      <c r="DU1" s="40" t="s">
+      <c r="DU1" s="37" t="s">
         <v>724</v>
       </c>
-      <c r="DV1" s="40" t="s">
+      <c r="DV1" s="37" t="s">
         <v>725</v>
       </c>
-      <c r="DW1" s="40" t="s">
+      <c r="DW1" s="37" t="s">
         <v>726</v>
       </c>
-      <c r="DX1" s="40" t="s">
+      <c r="DX1" s="37" t="s">
         <v>727</v>
       </c>
-      <c r="DY1" s="40" t="s">
+      <c r="DY1" s="37" t="s">
         <v>728</v>
       </c>
-      <c r="DZ1" s="41" t="s">
+      <c r="DZ1" s="38" t="s">
         <v>729</v>
       </c>
-      <c r="EA1" s="39" t="s">
+      <c r="EA1" s="36" t="s">
         <v>730</v>
       </c>
-      <c r="EB1" s="40" t="s">
+      <c r="EB1" s="37" t="s">
         <v>731</v>
       </c>
-      <c r="EC1" s="40" t="s">
+      <c r="EC1" s="37" t="s">
         <v>732</v>
       </c>
-      <c r="ED1" s="40" t="s">
+      <c r="ED1" s="37" t="s">
         <v>733</v>
       </c>
-      <c r="EE1" s="40" t="s">
+      <c r="EE1" s="37" t="s">
         <v>734</v>
       </c>
-      <c r="EF1" s="40" t="s">
+      <c r="EF1" s="37" t="s">
         <v>735</v>
       </c>
-      <c r="EG1" s="40" t="s">
+      <c r="EG1" s="37" t="s">
         <v>736</v>
       </c>
-      <c r="EH1" s="41" t="s">
+      <c r="EH1" s="38" t="s">
         <v>737</v>
       </c>
-      <c r="EI1" s="39" t="s">
+      <c r="EI1" s="36" t="s">
         <v>738</v>
       </c>
-      <c r="EJ1" s="40" t="s">
+      <c r="EJ1" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="EK1" s="40" t="s">
+      <c r="EK1" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="EL1" s="40" t="s">
+      <c r="EL1" s="37" t="s">
         <v>741</v>
       </c>
-      <c r="EM1" s="40" t="s">
+      <c r="EM1" s="37" t="s">
         <v>742</v>
       </c>
-      <c r="EN1" s="40" t="s">
+      <c r="EN1" s="37" t="s">
         <v>743</v>
       </c>
-      <c r="EO1" s="40" t="s">
+      <c r="EO1" s="37" t="s">
         <v>744</v>
       </c>
-      <c r="EP1" s="41" t="s">
+      <c r="EP1" s="38" t="s">
         <v>745</v>
       </c>
       <c r="EQ1" s="22" t="s">
@@ -15293,7 +15255,7 @@
       <c r="AB2" t="s">
         <v>620</v>
       </c>
-      <c r="AC2" s="48" t="s">
+      <c r="AC2" t="s">
         <v>620</v>
       </c>
       <c r="AD2" s="9" t="s">
@@ -15311,7 +15273,7 @@
       <c r="AL2" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="AM2" s="48">
+      <c r="AM2">
         <v>-300</v>
       </c>
       <c r="AN2">
@@ -15725,7 +15687,7 @@
       <c r="AB3" t="s">
         <v>620</v>
       </c>
-      <c r="AC3" s="48" t="s">
+      <c r="AC3" t="s">
         <v>620</v>
       </c>
       <c r="AD3" s="9" t="s">
@@ -15743,7 +15705,6 @@
       <c r="AL3" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM3" s="48"/>
       <c r="AQ3" s="23"/>
       <c r="AX3" s="20"/>
       <c r="AY3" s="23"/>
@@ -15860,7 +15821,7 @@
       <c r="AB4" t="s">
         <v>620</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" t="s">
         <v>620</v>
       </c>
       <c r="AD4" s="9" t="s">
@@ -15878,7 +15839,6 @@
       <c r="AL4" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM4" s="48"/>
       <c r="AQ4" s="23"/>
       <c r="AX4" s="20"/>
       <c r="AY4" s="23"/>
@@ -15995,7 +15955,7 @@
       <c r="AB5" t="s">
         <v>620</v>
       </c>
-      <c r="AC5" s="48" t="s">
+      <c r="AC5" t="s">
         <v>620</v>
       </c>
       <c r="AD5" s="9" t="s">
@@ -16013,7 +15973,6 @@
       <c r="AL5" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM5" s="48"/>
       <c r="AQ5" s="23"/>
       <c r="AX5" s="20"/>
       <c r="AY5" s="23"/>
@@ -16130,7 +16089,7 @@
       <c r="AB6" t="s">
         <v>620</v>
       </c>
-      <c r="AC6" s="48" t="s">
+      <c r="AC6" t="s">
         <v>620</v>
       </c>
       <c r="AD6" s="9" t="s">
@@ -16148,7 +16107,6 @@
       <c r="AL6" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM6" s="48"/>
       <c r="AQ6" s="23"/>
       <c r="AX6" s="20"/>
       <c r="AY6" s="23"/>
@@ -16265,7 +16223,7 @@
       <c r="AB7" t="s">
         <v>620</v>
       </c>
-      <c r="AC7" s="48" t="s">
+      <c r="AC7" t="s">
         <v>620</v>
       </c>
       <c r="AD7" s="9" t="s">
@@ -16283,7 +16241,6 @@
       <c r="AL7" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM7" s="48"/>
       <c r="AQ7" s="23"/>
       <c r="AX7" s="20"/>
       <c r="AY7" s="23"/>
@@ -16400,7 +16357,7 @@
       <c r="AB8" t="s">
         <v>620</v>
       </c>
-      <c r="AC8" s="48" t="s">
+      <c r="AC8" t="s">
         <v>620</v>
       </c>
       <c r="AD8" s="9" t="s">
@@ -16418,7 +16375,6 @@
       <c r="AL8" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM8" s="48"/>
       <c r="AQ8" s="23"/>
       <c r="AX8" s="20"/>
       <c r="AY8" s="23"/>
@@ -16535,7 +16491,7 @@
       <c r="AB9" t="s">
         <v>620</v>
       </c>
-      <c r="AC9" s="48" t="s">
+      <c r="AC9" t="s">
         <v>620</v>
       </c>
       <c r="AD9" s="9" t="s">
@@ -16553,7 +16509,6 @@
       <c r="AL9" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM9" s="48"/>
       <c r="AQ9" s="23"/>
       <c r="AX9" s="20"/>
       <c r="AY9" s="23"/>
@@ -16670,7 +16625,7 @@
       <c r="AB10" t="s">
         <v>620</v>
       </c>
-      <c r="AC10" s="48" t="s">
+      <c r="AC10" t="s">
         <v>620</v>
       </c>
       <c r="AD10" s="9" t="s">
@@ -16688,7 +16643,6 @@
       <c r="AL10" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM10" s="48"/>
       <c r="AQ10" s="23"/>
       <c r="AX10" s="20"/>
       <c r="AY10" s="23"/>
@@ -16805,7 +16759,7 @@
       <c r="AB11" t="s">
         <v>620</v>
       </c>
-      <c r="AC11" s="48" t="s">
+      <c r="AC11" t="s">
         <v>620</v>
       </c>
       <c r="AD11" s="9" t="s">
@@ -16823,7 +16777,6 @@
       <c r="AL11" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM11" s="48"/>
       <c r="AQ11" s="23"/>
       <c r="AX11" s="20"/>
       <c r="AY11" s="23"/>
@@ -16940,7 +16893,7 @@
       <c r="AB12" t="s">
         <v>620</v>
       </c>
-      <c r="AC12" s="48" t="s">
+      <c r="AC12" t="s">
         <v>620</v>
       </c>
       <c r="AD12" s="9" t="s">
@@ -16958,7 +16911,6 @@
       <c r="AL12" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM12" s="48"/>
       <c r="AQ12" s="23"/>
       <c r="AX12" s="20"/>
       <c r="AY12" s="23"/>
@@ -17075,7 +17027,7 @@
       <c r="AB13" t="s">
         <v>620</v>
       </c>
-      <c r="AC13" s="48" t="s">
+      <c r="AC13" t="s">
         <v>620</v>
       </c>
       <c r="AD13" s="9" t="s">
@@ -17093,7 +17045,6 @@
       <c r="AL13" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM13" s="48"/>
       <c r="AQ13" s="23"/>
       <c r="AX13" s="20"/>
       <c r="AY13" s="23"/>
@@ -17210,7 +17161,7 @@
       <c r="AB14" t="s">
         <v>620</v>
       </c>
-      <c r="AC14" s="48" t="s">
+      <c r="AC14" t="s">
         <v>620</v>
       </c>
       <c r="AD14" s="9" t="s">
@@ -17228,7 +17179,6 @@
       <c r="AL14" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM14" s="48"/>
       <c r="AQ14" s="23"/>
       <c r="AX14" s="20"/>
       <c r="AY14" s="23"/>
@@ -17345,7 +17295,7 @@
       <c r="AB15" t="s">
         <v>620</v>
       </c>
-      <c r="AC15" s="48" t="s">
+      <c r="AC15" t="s">
         <v>620</v>
       </c>
       <c r="AD15" s="9" t="s">
@@ -17363,7 +17313,6 @@
       <c r="AL15" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM15" s="48"/>
       <c r="AQ15" s="23"/>
       <c r="AX15" s="20"/>
       <c r="AY15" s="23"/>
@@ -17480,7 +17429,7 @@
       <c r="AB16" t="s">
         <v>620</v>
       </c>
-      <c r="AC16" s="48" t="s">
+      <c r="AC16" t="s">
         <v>620</v>
       </c>
       <c r="AD16" s="9" t="s">
@@ -17498,7 +17447,6 @@
       <c r="AL16" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM16" s="48"/>
       <c r="AQ16" s="23"/>
       <c r="AX16" s="20"/>
       <c r="AY16" s="23"/>
@@ -17615,7 +17563,7 @@
       <c r="AB17">
         <v>290</v>
       </c>
-      <c r="AC17" s="48">
+      <c r="AC17">
         <v>110</v>
       </c>
       <c r="AD17" s="9">
@@ -17633,7 +17581,6 @@
       <c r="AL17" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM17" s="48"/>
       <c r="AQ17" s="23"/>
       <c r="AX17" s="20"/>
       <c r="AY17" s="23"/>
@@ -17752,7 +17699,7 @@
       <c r="AB18" t="s">
         <v>620</v>
       </c>
-      <c r="AC18" s="48" t="s">
+      <c r="AC18" t="s">
         <v>620</v>
       </c>
       <c r="AD18" s="9" t="s">
@@ -17770,7 +17717,6 @@
       <c r="AL18" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM18" s="48"/>
       <c r="AQ18" s="23"/>
       <c r="AX18" s="20"/>
       <c r="AY18" s="23"/>
@@ -17887,7 +17833,7 @@
       <c r="AB19" t="s">
         <v>620</v>
       </c>
-      <c r="AC19" s="48" t="s">
+      <c r="AC19" t="s">
         <v>620</v>
       </c>
       <c r="AD19" s="9" t="s">
@@ -17905,7 +17851,6 @@
       <c r="AL19" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM19" s="48"/>
       <c r="AQ19" s="23"/>
       <c r="AX19" s="20"/>
       <c r="AY19" s="23"/>
@@ -18022,7 +17967,7 @@
       <c r="AB20">
         <v>240</v>
       </c>
-      <c r="AC20" s="48">
+      <c r="AC20">
         <v>110</v>
       </c>
       <c r="AD20" s="9">
@@ -18040,7 +17985,6 @@
       <c r="AL20" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM20" s="48"/>
       <c r="AQ20" s="23"/>
       <c r="AX20" s="20"/>
       <c r="AY20" s="23"/>
@@ -18159,7 +18103,7 @@
       <c r="AB21">
         <v>240</v>
       </c>
-      <c r="AC21" s="48">
+      <c r="AC21">
         <v>200</v>
       </c>
       <c r="AD21" s="9">
@@ -18177,7 +18121,6 @@
       <c r="AL21" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM21" s="48"/>
       <c r="AQ21" s="23"/>
       <c r="AX21" s="20"/>
       <c r="AY21" s="23"/>
@@ -18296,7 +18239,7 @@
       <c r="AB22" t="s">
         <v>620</v>
       </c>
-      <c r="AC22" s="48" t="s">
+      <c r="AC22" t="s">
         <v>620</v>
       </c>
       <c r="AD22" s="9" t="s">
@@ -18314,7 +18257,6 @@
       <c r="AL22" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM22" s="48"/>
       <c r="AQ22" s="23"/>
       <c r="AX22" s="20"/>
       <c r="AY22" s="23"/>
@@ -18431,7 +18373,7 @@
       <c r="AB23" t="s">
         <v>620</v>
       </c>
-      <c r="AC23" s="48" t="s">
+      <c r="AC23" t="s">
         <v>620</v>
       </c>
       <c r="AD23" s="9" t="s">
@@ -18449,7 +18391,6 @@
       <c r="AL23" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM23" s="48"/>
       <c r="AQ23" s="23"/>
       <c r="AX23" s="20"/>
       <c r="AY23" s="23"/>
@@ -18568,7 +18509,7 @@
       <c r="AB24" t="s">
         <v>620</v>
       </c>
-      <c r="AC24" s="48" t="s">
+      <c r="AC24" t="s">
         <v>620</v>
       </c>
       <c r="AD24" s="9" t="s">
@@ -18586,7 +18527,6 @@
       <c r="AL24" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM24" s="48"/>
       <c r="AQ24" s="23"/>
       <c r="AX24" s="20"/>
       <c r="AY24" s="23"/>
@@ -18702,7 +18642,7 @@
       <c r="AB25" t="s">
         <v>620</v>
       </c>
-      <c r="AC25" s="48" t="s">
+      <c r="AC25" t="s">
         <v>620</v>
       </c>
       <c r="AD25" s="9" t="s">
@@ -18720,7 +18660,6 @@
       <c r="AL25" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM25" s="48"/>
       <c r="AQ25" s="23"/>
       <c r="AX25" s="20"/>
       <c r="AY25" s="23"/>
@@ -18839,7 +18778,7 @@
       <c r="AB26" t="s">
         <v>620</v>
       </c>
-      <c r="AC26" s="48" t="s">
+      <c r="AC26" t="s">
         <v>620</v>
       </c>
       <c r="AD26" s="9" t="s">
@@ -18857,7 +18796,6 @@
       <c r="AL26" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM26" s="48"/>
       <c r="AQ26" s="23"/>
       <c r="AX26" s="20"/>
       <c r="AY26" s="23"/>
@@ -18973,7 +18911,7 @@
       <c r="AB27" t="s">
         <v>620</v>
       </c>
-      <c r="AC27" s="48" t="s">
+      <c r="AC27" t="s">
         <v>620</v>
       </c>
       <c r="AD27" s="9" t="s">
@@ -18991,7 +18929,6 @@
       <c r="AL27" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM27" s="48"/>
       <c r="AQ27" s="23"/>
       <c r="AX27" s="20"/>
       <c r="AY27" s="23"/>
@@ -19108,7 +19045,7 @@
       <c r="AB28" t="s">
         <v>620</v>
       </c>
-      <c r="AC28" s="48" t="s">
+      <c r="AC28" t="s">
         <v>620</v>
       </c>
       <c r="AD28" s="9" t="s">
@@ -19126,7 +19063,6 @@
       <c r="AL28" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM28" s="48"/>
       <c r="AQ28" s="23"/>
       <c r="AX28" s="20"/>
       <c r="AY28" s="23"/>
@@ -19242,7 +19178,7 @@
       <c r="AB29" t="s">
         <v>620</v>
       </c>
-      <c r="AC29" s="48" t="s">
+      <c r="AC29" t="s">
         <v>620</v>
       </c>
       <c r="AD29" s="9" t="s">
@@ -19260,7 +19196,6 @@
       <c r="AL29" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM29" s="48"/>
       <c r="AQ29" s="23"/>
       <c r="AX29" s="20"/>
       <c r="AY29" s="23"/>
@@ -19394,7 +19329,6 @@
       <c r="AL30" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM30" s="48"/>
       <c r="AQ30" s="23"/>
       <c r="AX30" s="20"/>
       <c r="AY30" s="23"/>
@@ -19528,7 +19462,6 @@
       <c r="AL31" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="AM31" s="48"/>
       <c r="AQ31" s="23"/>
       <c r="AX31" s="20"/>
       <c r="AY31" s="23"/>
@@ -19644,7 +19577,7 @@
       <c r="AB32" t="s">
         <v>620</v>
       </c>
-      <c r="AC32" s="48" t="s">
+      <c r="AC32" t="s">
         <v>620</v>
       </c>
       <c r="AD32" s="9" t="s">
@@ -19659,122 +19592,14 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="9"/>
       <c r="AK32" s="10"/>
-      <c r="AL32" s="11" t="s">
+      <c r="AL32" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="24"/>
-      <c r="AR32" s="25"/>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="25"/>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="25"/>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="24"/>
-      <c r="AZ32" s="25"/>
-      <c r="BA32" s="25"/>
-      <c r="BB32" s="25"/>
-      <c r="BC32" s="25"/>
-      <c r="BD32" s="25"/>
-      <c r="BE32" s="25"/>
-      <c r="BF32" s="26"/>
-      <c r="BG32" s="24"/>
-      <c r="BH32" s="25"/>
-      <c r="BI32" s="25"/>
-      <c r="BJ32" s="25"/>
-      <c r="BK32" s="25"/>
-      <c r="BL32" s="25"/>
-      <c r="BM32" s="25"/>
-      <c r="BN32" s="26"/>
-      <c r="BO32" s="24"/>
-      <c r="BP32" s="25"/>
-      <c r="BQ32" s="25"/>
-      <c r="BR32" s="25"/>
-      <c r="BS32" s="25"/>
-      <c r="BT32" s="25"/>
-      <c r="BU32" s="25"/>
-      <c r="BV32" s="26"/>
-      <c r="BW32" s="24"/>
-      <c r="BX32" s="25"/>
-      <c r="BY32" s="25"/>
-      <c r="BZ32" s="25"/>
-      <c r="CA32" s="24"/>
-      <c r="CB32" s="25"/>
-      <c r="CC32" s="25"/>
-      <c r="CD32" s="25"/>
-      <c r="CE32" s="25"/>
-      <c r="CF32" s="25"/>
-      <c r="CG32" s="25"/>
-      <c r="CH32" s="26"/>
-      <c r="CI32" s="24"/>
-      <c r="CJ32" s="25"/>
-      <c r="CK32" s="25"/>
-      <c r="CL32" s="25"/>
-      <c r="CM32" s="25"/>
-      <c r="CN32" s="25"/>
-      <c r="CO32" s="25"/>
-      <c r="CP32" s="26"/>
-      <c r="CQ32" s="24"/>
-      <c r="CR32" s="25"/>
-      <c r="CS32" s="25"/>
-      <c r="CT32" s="25"/>
-      <c r="CU32" s="25"/>
-      <c r="CV32" s="25"/>
-      <c r="CW32" s="25"/>
-      <c r="CX32" s="26"/>
-      <c r="CY32" s="24"/>
-      <c r="CZ32" s="25"/>
-      <c r="DA32" s="25"/>
-      <c r="DB32" s="25"/>
-      <c r="DC32" s="25"/>
-      <c r="DD32" s="25"/>
-      <c r="DE32" s="25"/>
-      <c r="DF32" s="26"/>
-      <c r="DG32" s="24"/>
-      <c r="DH32" s="25"/>
-      <c r="DI32" s="25"/>
-      <c r="DJ32" s="25"/>
-      <c r="DK32" s="24"/>
-      <c r="DL32" s="25"/>
-      <c r="DM32" s="25"/>
-      <c r="DN32" s="25"/>
-      <c r="DO32" s="25"/>
-      <c r="DP32" s="25"/>
-      <c r="DQ32" s="25"/>
-      <c r="DR32" s="26"/>
-      <c r="DS32" s="24"/>
-      <c r="DT32" s="25"/>
-      <c r="DU32" s="25"/>
-      <c r="DV32" s="25"/>
-      <c r="DW32" s="25"/>
-      <c r="DX32" s="25"/>
-      <c r="DY32" s="25"/>
-      <c r="DZ32" s="26"/>
-      <c r="EA32" s="24"/>
-      <c r="EB32" s="25"/>
-      <c r="EC32" s="25"/>
-      <c r="ED32" s="25"/>
-      <c r="EE32" s="25"/>
-      <c r="EF32" s="25"/>
-      <c r="EG32" s="25"/>
-      <c r="EH32" s="26"/>
-      <c r="EI32" s="24"/>
-      <c r="EJ32" s="25"/>
-      <c r="EK32" s="25"/>
-      <c r="EL32" s="25"/>
-      <c r="EM32" s="25"/>
-      <c r="EN32" s="25"/>
-      <c r="EO32" s="25"/>
-      <c r="EP32" s="26"/>
-      <c r="EQ32" s="11" t="s">
+      <c r="EQ32" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="15.75" thickBot="1">
+    <row r="33" spans="1:147" ht="15.75" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>358</v>
       </c>
@@ -19877,8 +19702,11 @@
       <c r="AL33" s="11" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="34" spans="1:38" ht="15.75" thickBot="1">
+      <c r="EQ33" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:147" ht="15.75" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>447</v>
       </c>
@@ -19891,10 +19719,10 @@
       <c r="D34" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="9">
         <v>530</v>
       </c>
       <c r="G34">
@@ -19903,7 +19731,7 @@
       <c r="H34">
         <v>175</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="10">
         <v>0</v>
       </c>
       <c r="J34" s="9" t="s">
@@ -19912,10 +19740,10 @@
       <c r="K34" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="L34" s="47">
+      <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" s="47">
+      <c r="M34">
         <v>45</v>
       </c>
       <c r="N34" t="s">
@@ -19951,10 +19779,10 @@
       <c r="X34" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="Y34" s="47" t="s">
+      <c r="Y34" t="s">
         <v>601</v>
       </c>
-      <c r="Z34" s="47" t="s">
+      <c r="Z34" t="s">
         <v>625</v>
       </c>
       <c r="AA34">
@@ -19993,35 +19821,452 @@
       <c r="AL34" s="11" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="35" spans="1:38">
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
-    </row>
-    <row r="36" spans="1:38">
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="48"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
-    </row>
-    <row r="37" spans="1:38">
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
+      <c r="EQ34" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:147" ht="15.75" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="F35" s="9">
+        <v>455</v>
+      </c>
+      <c r="G35">
+        <v>330</v>
+      </c>
+      <c r="H35">
+        <v>190</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>45</v>
+      </c>
+      <c r="N35" t="s">
+        <v>620</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="P35" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>620</v>
+      </c>
+      <c r="R35" t="s">
+        <v>620</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="T35" t="s">
+        <v>620</v>
+      </c>
+      <c r="U35" t="s">
+        <v>620</v>
+      </c>
+      <c r="V35" t="s">
+        <v>620</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA35">
+        <v>15</v>
+      </c>
+      <c r="AB35">
+        <v>270</v>
+      </c>
+      <c r="AC35">
+        <v>395</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>245</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>245</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AL35" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>620</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>620</v>
+      </c>
+      <c r="BW35">
+        <v>-265</v>
+      </c>
+      <c r="BX35">
+        <v>245</v>
+      </c>
+      <c r="BY35">
+        <v>265</v>
+      </c>
+      <c r="BZ35">
+        <v>245</v>
+      </c>
+      <c r="CA35">
+        <v>-265</v>
+      </c>
+      <c r="CB35">
+        <v>45</v>
+      </c>
+      <c r="CC35">
+        <v>-265</v>
+      </c>
+      <c r="CD35">
+        <v>245</v>
+      </c>
+      <c r="CE35">
+        <v>265</v>
+      </c>
+      <c r="CF35">
+        <v>45</v>
+      </c>
+      <c r="CG35">
+        <v>265</v>
+      </c>
+      <c r="CH35">
+        <v>245</v>
+      </c>
+      <c r="CI35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CJ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CK35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CL35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CM35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CN35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CO35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CP35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CQ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CR35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CS35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CT35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CU35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CV35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CW35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CX35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CY35" t="s">
+        <v>620</v>
+      </c>
+      <c r="CZ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DA35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DB35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DC35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DD35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DE35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DF35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DG35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DH35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DI35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DJ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DK35">
+        <v>-400</v>
+      </c>
+      <c r="DL35">
+        <v>45</v>
+      </c>
+      <c r="DM35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DN35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DO35">
+        <v>400</v>
+      </c>
+      <c r="DP35">
+        <v>45</v>
+      </c>
+      <c r="DQ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DR35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DS35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DT35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DU35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DV35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DW35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DX35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DY35" t="s">
+        <v>620</v>
+      </c>
+      <c r="DZ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EA35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EB35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EC35" t="s">
+        <v>620</v>
+      </c>
+      <c r="ED35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EE35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EF35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EG35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EH35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EI35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EJ35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EK35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EL35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EM35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EN35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EO35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EP35" t="s">
+        <v>620</v>
+      </c>
+      <c r="EQ35" t="s">
+        <v>601</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20034,8 +20279,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E291"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219:D219"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="A276" sqref="A276:D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
